--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -244,6 +244,600 @@
 
 <file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$58</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$58</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="34"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$58</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$58</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="6"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$58</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$58</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="3"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$58</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$58</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="7"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln>
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$58</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$58</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="5"/>
   <chart>
     <title>
@@ -835,7 +1429,6 @@
 
 <file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="34"/>
   <chart>
     <title>
       <tx>
@@ -954,7 +1547,6 @@
 
 <file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -1073,7 +1665,6 @@
 
 <file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
   <chart>
     <title>
       <tx>
@@ -1192,7 +1783,6 @@
 
 <file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="7"/>
   <chart>
     <title>
       <tx>
@@ -1526,6 +2116,116 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>119</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="15" name="Chart 15"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId15"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -1,28 +1,44 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <workbookPr codeName="ThisWorkbook"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <workbookPr/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="hoja1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="hoja1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
-  <calcPr calcId="0" fullCalcOnLoad="1" iterateDelta="0.0001"/>
+  <calcPr calcId="124519" fullCalcOnLoad="1" refMode="A1" iterate="0" iterateCount="100" iterateDelta="0.0001"/>
 </workbook>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="4">
     <font>
       <name val="Calibri"/>
       <charset val="1"/>
       <family val="2"/>
       <color rgb="FF000000"/>
       <sz val="11"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
+    </font>
+    <font>
+      <name val="Arial"/>
+      <family val="0"/>
+      <sz val="10"/>
     </font>
   </fonts>
   <fills count="2">
@@ -42,17 +58,36 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="6">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+  <cellXfs count="4">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="general" vertical="bottom"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="6">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Comma" xfId="1" builtinId="3"/>
+    <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
+    <cellStyle name="Currency" xfId="3" builtinId="4"/>
+    <cellStyle name="Currency [0]" xfId="4" builtinId="7"/>
+    <cellStyle name="Percent" xfId="5" builtinId="5"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <colors>
     <indexedColors>
       <rgbColor rgb="00000000"/>
@@ -125,14 +160,13 @@
 </file>
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="34"/>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -155,26 +189,26 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'hoja1'!$A$4:$A$58</f>
+              <f>'hoja1'!$A$4:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'hoja1'!$B$5:$B$58</f>
+              <f>'hoja1'!$B$5:$B$43</f>
             </numRef>
           </val>
         </ser>
@@ -190,8 +224,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -217,8 +251,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -243,15 +277,250 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
+<file path=xl/charts/chart10.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart11.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart12.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -274,26 +543,26 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'hoja1'!$A$4:$A$58</f>
+              <f>'hoja1'!$A$4:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'hoja1'!$C$5:$C$58</f>
+              <f>'hoja1'!$C$5:$C$43</f>
             </numRef>
           </val>
         </ser>
@@ -309,8 +578,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -336,8 +605,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -362,15 +631,14 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
+<file path=xl/charts/chart13.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -393,26 +661,26 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'hoja1'!$A$4:$A$58</f>
+              <f>'hoja1'!$A$4:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'hoja1'!$D$5:$D$58</f>
+              <f>'hoja1'!$D$5:$D$43</f>
             </numRef>
           </val>
         </ser>
@@ -428,8 +696,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -455,8 +723,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -481,15 +749,14 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="7"/>
+<file path=xl/charts/chart14.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -512,26 +779,26 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'hoja1'!$A$4:$A$58</f>
+              <f>'hoja1'!$A$4:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'hoja1'!$E$5:$E$58</f>
+              <f>'hoja1'!$E$5:$E$43</f>
             </numRef>
           </val>
         </ser>
@@ -547,8 +814,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -574,8 +841,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -600,15 +867,14 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
+<file path=xl/charts/chart15.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <chart>
     <title>
       <tx>
         <rich>
-          <a:bodyPr/>
-          <a:p>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
             <a:pPr>
               <a:defRPr/>
             </a:pPr>
@@ -631,26 +897,26 @@
             </strRef>
           </tx>
           <spPr>
-            <a:ln>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
               <a:prstDash val="solid"/>
             </a:ln>
           </spPr>
           <marker>
             <symbol val="none"/>
             <spPr>
-              <a:ln>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:prstDash val="solid"/>
               </a:ln>
             </spPr>
           </marker>
           <cat>
             <numRef>
-              <f>'hoja1'!$A$4:$A$58</f>
+              <f>'hoja1'!$A$4:$A$43</f>
             </numRef>
           </cat>
           <val>
             <numRef>
-              <f>'hoja1'!$F$5:$F$58</f>
+              <f>'hoja1'!$F$5:$F$43</f>
             </numRef>
           </val>
         </ser>
@@ -666,8 +932,8 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
@@ -693,13 +959,5092 @@
         <title>
           <tx>
             <rich>
-              <a:bodyPr/>
-              <a:p>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
                 <a:pPr>
                   <a:defRPr/>
                 </a:pPr>
                 <a:r>
                   <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart16.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart17.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart18.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart19.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart20.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart21.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart22.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart23.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart24.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart25.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart26.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart27.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart28.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart29.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart30.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart31.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart32.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart33.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart34.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart35.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart36.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart37.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart38.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart39.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart40.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart41.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart42.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart43.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart44.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart45.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="34"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="6"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="3"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="7"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart5.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="5"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart6.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart8.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart9.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -720,7 +6065,29 @@
 </file>
 
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
   <oneCellAnchor>
     <from>
       <col>0</col>
@@ -731,13 +6098,13 @@
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="1" name="Chart 1"/>
+        <cNvPr id="2" name="Chart 2"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId1"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -753,13 +6120,13 @@
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="2" name="Chart 2"/>
+        <cNvPr id="3" name="Chart 3"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -775,13 +6142,13 @@
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="3" name="Chart 3"/>
+        <cNvPr id="4" name="Chart 4"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId3"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -797,13 +6164,13 @@
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="4" name="Chart 4"/>
+        <cNvPr id="5" name="Chart 5"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId4"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -813,19 +6180,987 @@
     <from>
       <col>0</col>
       <colOff>0</colOff>
-      <row>119</row>
+      <row>44</row>
       <rowOff>0</rowOff>
     </from>
     <ext cx="5400000" cy="2700000"/>
     <graphicFrame>
       <nvGraphicFramePr>
-        <cNvPr id="5" name="Chart 5"/>
+        <cNvPr id="6" name="Chart 6"/>
         <cNvGraphicFramePr/>
       </nvGraphicFramePr>
       <xfrm/>
-      <a:graphic>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId5"/>
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId6"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="7" name="Chart 7"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="8" name="Chart 8"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId8"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="9" name="Chart 9"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="10" name="Chart 10"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId10"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="11" name="Chart 11"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="12" name="Chart 12"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId12"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="13" name="Chart 13"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="14" name="Chart 14"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId14"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="15" name="Chart 15"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="16" name="Chart 16"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId16"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="17" name="Chart 17"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="18" name="Chart 18"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId18"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="19" name="Chart 19"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId19"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="20" name="Chart 20"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId20"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="21" name="Chart 21"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId21"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="22" name="Chart 22"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId22"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="23" name="Chart 23"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId23"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="24" name="Chart 24"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId24"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="25" name="Chart 25"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId25"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="26" name="Chart 26"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId26"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="27" name="Chart 27"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId27"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="28" name="Chart 28"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId28"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="29" name="Chart 29"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId29"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="30" name="Chart 30"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId30"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="31" name="Chart 31"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId31"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="32" name="Chart 32"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId32"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="33" name="Chart 33"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId33"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="34" name="Chart 34"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId34"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="35" name="Chart 35"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId35"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="36" name="Chart 36"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId36"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="37" name="Chart 37"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId37"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="38" name="Chart 38"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId38"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="39" name="Chart 39"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId39"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="40" name="Chart 40"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId40"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="41" name="Chart 41"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId41"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="42" name="Chart 42"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId42"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="43" name="Chart 43"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId43"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="44" name="Chart 44"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId44"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="45" name="Chart 45"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId45"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="46" name="Chart 46"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId46"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="47" name="Chart 47"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId47"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="48" name="Chart 48"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId48"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="49" name="Chart 49"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId49"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="50" name="Chart 50"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId50"/>
         </a:graphicData>
       </a:graphic>
     </graphicFrame>
@@ -1118,1283 +7453,950 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr codeName="Hoja1">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr filterMode="0">
     <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr fitToPage="1"/>
+    <pageSetUpPr fitToPage="0"/>
   </sheetPr>
-  <dimension ref="A1:F58"/>
+  <dimension ref="A1:F43"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A37" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="H9" activeCellId="0" sqref="H9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.5703125" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="8.54296875" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
   <cols>
-    <col width="28.42578125" customWidth="1" style="1" min="1" max="1"/>
-    <col width="15.7109375" customWidth="1" style="1" min="2" max="2"/>
-    <col width="12.140625" customWidth="1" style="1" min="3" max="3"/>
-    <col width="11.85546875" customWidth="1" style="1" min="4" max="4"/>
-    <col width="10.85546875" customWidth="1" style="1" min="6" max="6"/>
+    <col width="33.51" customWidth="1" style="2" min="6" max="6"/>
   </cols>
   <sheetData>
-    <row r="1" ht="13.9" customHeight="1" s="1">
-      <c r="A1" t="inlineStr">
+    <row r="1" ht="13.8" customHeight="1" s="3">
+      <c r="A1" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Nombre </t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
         <is>
           <t>Daniel Yautibug</t>
         </is>
       </c>
     </row>
-    <row r="2" ht="13.9" customHeight="1" s="1">
-      <c r="A2" t="inlineStr">
+    <row r="2" ht="13.8" customHeight="1" s="3">
+      <c r="A2" s="2" t="inlineStr">
         <is>
           <t>Cedula</t>
         </is>
       </c>
-      <c r="B2" t="n">
-        <v>12901290219</v>
+      <c r="B2" s="2" t="n">
+        <v>2020202</v>
       </c>
     </row>
-    <row r="3" ht="13.9" customHeight="1" s="1">
-      <c r="A3" t="inlineStr">
+    <row r="3" ht="13.8" customHeight="1" s="3">
+      <c r="A3" s="2" t="inlineStr">
         <is>
           <t>Curso</t>
         </is>
       </c>
-      <c r="B3" t="inlineStr">
+      <c r="B3" s="2" t="inlineStr">
         <is>
           <t>Otros</t>
         </is>
       </c>
     </row>
-    <row r="4" ht="13.9" customHeight="1" s="1">
-      <c r="A4" t="inlineStr">
+    <row r="4" ht="13.8" customHeight="1" s="3">
+      <c r="A4" s="2" t="inlineStr">
         <is>
           <t xml:space="preserve">Hora </t>
         </is>
       </c>
-      <c r="B4" t="inlineStr">
+      <c r="B4" s="2" t="inlineStr">
         <is>
           <t>Temperatura</t>
         </is>
       </c>
-      <c r="C4" t="inlineStr">
+      <c r="C4" s="2" t="inlineStr">
         <is>
           <t>Peso</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
+      <c r="D4" s="2" t="inlineStr">
         <is>
           <t>Altura</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="E4" s="2" t="inlineStr">
         <is>
           <t>IMC</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>O2SAT</t>
+          <t xml:space="preserve">Nivel de Oxigeno en la Sangre </t>
         </is>
       </c>
     </row>
-    <row r="5" ht="13.9" customHeight="1" s="1">
-      <c r="A5" t="inlineStr">
+    <row r="5" ht="13.8" customHeight="1" s="3">
+      <c r="A5" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 10:58:46 2022</t>
         </is>
       </c>
-      <c r="B5" t="n">
+      <c r="B5" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C5" t="n">
+      <c r="C5" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D5" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E5" t="n">
+      <c r="E5" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" s="2" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="6" ht="13.9" customHeight="1" s="1">
-      <c r="A6" t="inlineStr">
+    <row r="6" ht="13.8" customHeight="1" s="3">
+      <c r="A6" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 10:58:46 2022</t>
         </is>
       </c>
-      <c r="B6" t="n">
+      <c r="B6" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C6" t="n">
+      <c r="C6" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D6" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E6" t="n">
-        <v>40.29</v>
-      </c>
-      <c r="F6" t="n">
+      <c r="D6" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E6" s="2" t="n">
+        <v>31.29</v>
+      </c>
+      <c r="F6" s="2" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="7" ht="13.9" customHeight="1" s="1">
-      <c r="A7" t="inlineStr">
+    <row r="7" ht="13.8" customHeight="1" s="3">
+      <c r="A7" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 10:58:46 2022</t>
         </is>
       </c>
-      <c r="B7" t="n">
+      <c r="B7" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C7" t="n">
+      <c r="C7" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D7" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E7" t="n">
+      <c r="D7" s="2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E7" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="8" ht="13.9" customHeight="1" s="1">
-      <c r="A8" t="inlineStr">
+    <row r="8" ht="13.8" customHeight="1" s="3">
+      <c r="A8" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:09:18 2022</t>
         </is>
       </c>
-      <c r="B8" t="n">
+      <c r="B8" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C8" t="n">
+      <c r="C8" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D8" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E8" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="F8" t="n">
+      <c r="E8" s="2" t="n">
+        <v>37.29</v>
+      </c>
+      <c r="F8" s="2" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="9" ht="13.9" customHeight="1" s="1">
-      <c r="A9" t="inlineStr">
+    <row r="9" ht="13.8" customHeight="1" s="3">
+      <c r="A9" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:09:18 2022</t>
         </is>
       </c>
-      <c r="B9" t="n">
+      <c r="B9" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C9" t="n">
+      <c r="C9" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D9" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E9" t="n">
+      <c r="D9" s="2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E9" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="10" ht="13.9" customHeight="1" s="1">
-      <c r="A10" t="inlineStr">
+    <row r="10" ht="13.8" customHeight="1" s="3">
+      <c r="A10" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:09:18 2022</t>
         </is>
       </c>
-      <c r="B10" t="n">
+      <c r="B10" s="2" t="n">
         <v>33.77</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C10" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D10" t="n">
+      <c r="D10" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E10" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="F10" t="n">
+      <c r="E10" s="2" t="n">
+        <v>35.29</v>
+      </c>
+      <c r="F10" s="2" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="11" ht="13.9" customHeight="1" s="1">
-      <c r="A11" t="inlineStr">
+    <row r="11" ht="13.8" customHeight="1" s="3">
+      <c r="A11" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:15:56 2022</t>
         </is>
       </c>
-      <c r="B11" t="n">
+      <c r="B11" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C11" t="n">
+      <c r="C11" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D11" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E11" t="n">
+      <c r="D11" s="2" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="E11" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" s="2" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="12" ht="13.9" customHeight="1" s="1">
-      <c r="A12" t="inlineStr">
+    <row r="12" ht="13.8" customHeight="1" s="3">
+      <c r="A12" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:16:25 2022</t>
         </is>
       </c>
-      <c r="B12" t="n">
+      <c r="B12" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C12" t="n">
+      <c r="C12" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D12" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E12" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="F12" t="n">
+      <c r="D12" s="2" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="E12" s="2" t="n">
+        <v>40.29</v>
+      </c>
+      <c r="F12" s="2" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="13" ht="13.9" customHeight="1" s="1">
-      <c r="A13" t="inlineStr">
+    <row r="13" ht="13.8" customHeight="1" s="3">
+      <c r="A13" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:16:25 2022</t>
         </is>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C13" t="n">
+      <c r="C13" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D13" t="n">
+      <c r="D13" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E13" t="n">
+      <c r="E13" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F13" t="n">
-        <v>95</v>
+      <c r="F13" s="2" t="n">
+        <v>92</v>
       </c>
     </row>
-    <row r="14" ht="13.9" customHeight="1" s="1">
-      <c r="A14" t="inlineStr">
+    <row r="14" ht="13.8" customHeight="1" s="3">
+      <c r="A14" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:19:06 2022</t>
         </is>
       </c>
-      <c r="B14" t="n">
+      <c r="B14" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C14" t="n">
+      <c r="C14" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D14" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E14" t="n">
+      <c r="D14" s="2" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="E14" s="2" t="n">
         <v>31.29</v>
       </c>
-      <c r="F14" t="n">
-        <v>97</v>
+      <c r="F14" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
-    <row r="15" ht="13.9" customHeight="1" s="1">
-      <c r="A15" t="inlineStr">
+    <row r="15" ht="13.8" customHeight="1" s="3">
+      <c r="A15" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:21:15 2022</t>
         </is>
       </c>
-      <c r="B15" t="n">
+      <c r="B15" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C15" t="n">
+      <c r="C15" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D15" t="n">
+      <c r="D15" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E15" t="n">
+      <c r="E15" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="16" ht="13.9" customHeight="1" s="1">
-      <c r="A16" t="inlineStr">
+    <row r="16" ht="13.8" customHeight="1" s="3">
+      <c r="A16" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:22:28 2022</t>
         </is>
       </c>
-      <c r="B16" t="n">
+      <c r="B16" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C16" t="n">
+      <c r="C16" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D16" t="n">
+      <c r="D16" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E16" t="n">
+      <c r="E16" s="2" t="n">
         <v>37.29</v>
       </c>
-      <c r="F16" t="n">
-        <v>96</v>
+      <c r="F16" s="2" t="n">
+        <v>97</v>
       </c>
     </row>
-    <row r="17" ht="13.9" customHeight="1" s="1">
-      <c r="A17" t="inlineStr">
+    <row r="17" ht="13.8" customHeight="1" s="3">
+      <c r="A17" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:22:28 2022</t>
         </is>
       </c>
-      <c r="B17" t="n">
+      <c r="B17" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C17" t="n">
+      <c r="C17" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D17" t="n">
+      <c r="D17" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E17" t="n">
+      <c r="E17" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F17" t="n">
-        <v>92</v>
+      <c r="F17" s="2" t="n">
+        <v>95</v>
       </c>
     </row>
-    <row r="18" ht="13.9" customHeight="1" s="1">
-      <c r="A18" t="inlineStr">
+    <row r="18" ht="13.8" customHeight="1" s="3">
+      <c r="A18" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:27:05 2022</t>
         </is>
       </c>
-      <c r="B18" t="n">
+      <c r="B18" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C18" t="n">
+      <c r="C18" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D18" t="n">
+      <c r="D18" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E18" t="n">
+      <c r="E18" s="2" t="n">
         <v>35.29</v>
       </c>
-      <c r="F18" t="n">
-        <v>94</v>
+      <c r="F18" s="2" t="n">
+        <v>96</v>
       </c>
     </row>
-    <row r="19" ht="13.9" customHeight="1" s="1">
-      <c r="A19" t="inlineStr">
+    <row r="19" ht="13.8" customHeight="1" s="3">
+      <c r="A19" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:27:05 2022</t>
         </is>
       </c>
-      <c r="B19" t="n">
+      <c r="B19" s="2" t="n">
         <v>33.77</v>
       </c>
-      <c r="C19" t="n">
+      <c r="C19" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D19" t="n">
+      <c r="D19" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E19" t="n">
+      <c r="E19" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F19" t="n">
-        <v>95</v>
+      <c r="F19" s="2" t="n">
+        <v>92</v>
       </c>
     </row>
-    <row r="20" ht="13.9" customHeight="1" s="1">
-      <c r="A20" t="inlineStr">
+    <row r="20" ht="13.8" customHeight="1" s="3">
+      <c r="A20" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:27:05 2022</t>
         </is>
       </c>
-      <c r="B20" t="n">
+      <c r="B20" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C20" t="n">
+      <c r="C20" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D20" t="n">
+      <c r="D20" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E20" t="n">
+      <c r="E20" s="2" t="n">
         <v>40.29</v>
       </c>
-      <c r="F20" t="n">
-        <v>97</v>
+      <c r="F20" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
-    <row r="21" ht="13.9" customHeight="1" s="1">
-      <c r="A21" t="inlineStr">
+    <row r="21" ht="13.8" customHeight="1" s="3">
+      <c r="A21" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:31:41 2022</t>
         </is>
       </c>
-      <c r="B21" t="n">
+      <c r="B21" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C21" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D21" t="n">
+      <c r="D21" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E21" t="n">
+      <c r="E21" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F21" t="n">
-        <v>95</v>
+      <c r="F21" s="2" t="n">
+        <v>92</v>
       </c>
     </row>
-    <row r="22" ht="13.9" customHeight="1" s="1">
-      <c r="A22" t="inlineStr">
+    <row r="22" ht="13.8" customHeight="1" s="3">
+      <c r="A22" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:31:41 2022</t>
         </is>
       </c>
-      <c r="B22" t="n">
+      <c r="B22" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C22" t="n">
+      <c r="C22" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D22" t="n">
+      <c r="D22" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E22" t="n">
+      <c r="E22" s="2" t="n">
         <v>31.29</v>
       </c>
-      <c r="F22" t="n">
-        <v>96</v>
+      <c r="F22" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
-    <row r="23" ht="13.9" customHeight="1" s="1">
-      <c r="A23" t="inlineStr">
+    <row r="23" ht="13.8" customHeight="1" s="3">
+      <c r="A23" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:34:55 2022</t>
         </is>
       </c>
-      <c r="B23" t="n">
+      <c r="B23" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C23" t="n">
+      <c r="C23" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D23" t="n">
+      <c r="D23" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E23" t="n">
+      <c r="E23" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F23" t="n">
-        <v>92</v>
+      <c r="F23" s="2" t="n">
+        <v>95</v>
       </c>
     </row>
-    <row r="24" ht="13.9" customHeight="1" s="1">
-      <c r="A24" t="inlineStr">
+    <row r="24" ht="13.8" customHeight="1" s="3">
+      <c r="A24" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:40:55 2022</t>
         </is>
       </c>
-      <c r="B24" t="n">
+      <c r="B24" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C24" t="n">
+      <c r="C24" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D24" t="n">
+      <c r="D24" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E24" t="n">
+      <c r="E24" s="2" t="n">
         <v>37.29</v>
       </c>
-      <c r="F24" t="n">
-        <v>94</v>
+      <c r="F24" s="2" t="n">
+        <v>97</v>
       </c>
     </row>
-    <row r="25" ht="13.9" customHeight="1" s="1">
-      <c r="A25" t="inlineStr">
+    <row r="25" ht="13.8" customHeight="1" s="3">
+      <c r="A25" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:43:32 2022</t>
         </is>
       </c>
-      <c r="B25" t="n">
+      <c r="B25" s="2" t="n">
         <v>33.77</v>
       </c>
-      <c r="C25" t="n">
+      <c r="C25" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D25" t="n">
+      <c r="D25" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E25" t="n">
+      <c r="E25" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="26" ht="13.9" customHeight="1" s="1">
-      <c r="A26" t="inlineStr">
+    <row r="26" ht="13.8" customHeight="1" s="3">
+      <c r="A26" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:46:30 2022</t>
         </is>
       </c>
-      <c r="B26" t="n">
+      <c r="B26" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C26" t="n">
+      <c r="C26" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D26" t="n">
+      <c r="D26" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E26" t="n">
+      <c r="E26" s="2" t="n">
         <v>35.29</v>
       </c>
-      <c r="F26" t="n">
-        <v>97</v>
+      <c r="F26" s="2" t="n">
+        <v>96</v>
       </c>
     </row>
-    <row r="27" ht="13.9" customHeight="1" s="1">
-      <c r="A27" t="inlineStr">
+    <row r="27" ht="13.8" customHeight="1" s="3">
+      <c r="A27" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:54:27 2022</t>
         </is>
       </c>
-      <c r="B27" t="n">
+      <c r="B27" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C27" t="n">
+      <c r="C27" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D27" t="n">
+      <c r="D27" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E27" t="n">
+      <c r="E27" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F27" t="n">
-        <v>95</v>
+      <c r="F27" s="2" t="n">
+        <v>92</v>
       </c>
     </row>
-    <row r="28" ht="13.9" customHeight="1" s="1">
-      <c r="A28" t="inlineStr">
+    <row r="28" ht="13.8" customHeight="1" s="3">
+      <c r="A28" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:55:08 2022</t>
         </is>
       </c>
-      <c r="B28" t="n">
+      <c r="B28" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C28" t="n">
+      <c r="C28" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D28" t="n">
+      <c r="D28" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E28" t="n">
+      <c r="E28" s="2" t="n">
         <v>40.29</v>
       </c>
-      <c r="F28" t="n">
-        <v>96</v>
+      <c r="F28" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
-    <row r="29" ht="13.9" customHeight="1" s="1">
-      <c r="A29" t="inlineStr">
+    <row r="29" ht="13.8" customHeight="1" s="3">
+      <c r="A29" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 11:55:08 2022</t>
         </is>
       </c>
-      <c r="B29" t="n">
+      <c r="B29" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C29" t="n">
+      <c r="C29" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D29" t="n">
+      <c r="D29" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E29" t="n">
+      <c r="E29" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" s="2" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="30" ht="13.9" customHeight="1" s="1">
-      <c r="A30" t="inlineStr">
+    <row r="30" ht="13.8" customHeight="1" s="3">
+      <c r="A30" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:31:47 2022</t>
         </is>
       </c>
-      <c r="B30" t="n">
+      <c r="B30" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C30" t="n">
+      <c r="C30" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D30" t="n">
+      <c r="D30" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E30" t="n">
+      <c r="E30" s="2" t="n">
         <v>31.29</v>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" s="2" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="31" ht="13.9" customHeight="1" s="1">
-      <c r="A31" t="inlineStr">
+    <row r="31" ht="13.8" customHeight="1" s="3">
+      <c r="A31" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:31:47 2022</t>
         </is>
       </c>
-      <c r="B31" t="n">
+      <c r="B31" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C31" t="n">
+      <c r="C31" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D31" t="n">
+      <c r="D31" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E31" t="n">
+      <c r="E31" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="32" ht="13.9" customHeight="1" s="1">
-      <c r="A32" t="inlineStr">
+    <row r="32" ht="13.8" customHeight="1" s="3">
+      <c r="A32" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:31:47 2022</t>
         </is>
       </c>
-      <c r="B32" t="n">
+      <c r="B32" s="2" t="n">
         <v>33.77</v>
       </c>
-      <c r="C32" t="n">
+      <c r="C32" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D32" t="n">
+      <c r="D32" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E32" t="n">
+      <c r="E32" s="2" t="n">
         <v>37.29</v>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" s="2" t="n">
         <v>97</v>
       </c>
     </row>
-    <row r="33" ht="13.9" customHeight="1" s="1">
-      <c r="A33" t="inlineStr">
+    <row r="33" ht="13.8" customHeight="1" s="3">
+      <c r="A33" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:36:32 2022</t>
         </is>
       </c>
-      <c r="B33" t="n">
+      <c r="B33" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C33" t="n">
+      <c r="C33" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D33" t="n">
+      <c r="D33" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E33" t="n">
+      <c r="E33" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="34" ht="13.9" customHeight="1" s="1">
-      <c r="A34" t="inlineStr">
+    <row r="34" ht="13.8" customHeight="1" s="3">
+      <c r="A34" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:36:32 2022</t>
         </is>
       </c>
-      <c r="B34" t="n">
+      <c r="B34" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C34" t="n">
+      <c r="C34" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D34" t="n">
+      <c r="D34" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E34" t="n">
+      <c r="E34" s="2" t="n">
         <v>35.29</v>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" s="2" t="n">
         <v>96</v>
       </c>
     </row>
-    <row r="35" ht="13.9" customHeight="1" s="1">
-      <c r="A35" t="inlineStr">
+    <row r="35" ht="13.8" customHeight="1" s="3">
+      <c r="A35" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:38:45 2022</t>
         </is>
       </c>
-      <c r="B35" t="n">
+      <c r="B35" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C35" t="n">
+      <c r="C35" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D35" t="n">
+      <c r="D35" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E35" t="n">
+      <c r="E35" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" s="2" t="n">
         <v>92</v>
       </c>
     </row>
-    <row r="36" ht="13.9" customHeight="1" s="1">
-      <c r="A36" t="inlineStr">
+    <row r="36" ht="13.8" customHeight="1" s="3">
+      <c r="A36" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:38:45 2022</t>
         </is>
       </c>
-      <c r="B36" t="n">
+      <c r="B36" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C36" t="n">
+      <c r="C36" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D36" t="n">
+      <c r="D36" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E36" t="n">
+      <c r="E36" s="2" t="n">
         <v>40.29</v>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" s="2" t="n">
         <v>94</v>
       </c>
     </row>
-    <row r="37" ht="13.9" customHeight="1" s="1">
-      <c r="A37" t="inlineStr">
+    <row r="37" ht="13.8" customHeight="1" s="3">
+      <c r="A37" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 14:58:06 2022</t>
         </is>
       </c>
-      <c r="B37" t="n">
+      <c r="B37" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C37" t="n">
+      <c r="C37" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D37" t="n">
+      <c r="D37" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E37" t="n">
+      <c r="E37" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F37" t="n">
-        <v>95</v>
+      <c r="F37" s="2" t="n">
+        <v>92</v>
       </c>
     </row>
-    <row r="38" ht="13.9" customHeight="1" s="1">
-      <c r="A38" t="inlineStr">
+    <row r="38" ht="13.8" customHeight="1" s="3">
+      <c r="A38" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 16:45:16 2022</t>
         </is>
       </c>
-      <c r="B38" t="n">
+      <c r="B38" s="2" t="n">
         <v>33.27</v>
       </c>
-      <c r="C38" t="n">
+      <c r="C38" s="2" t="n">
         <v>86.02</v>
       </c>
-      <c r="D38" t="n">
+      <c r="D38" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E38" t="n">
+      <c r="E38" s="2" t="n">
         <v>31.29</v>
       </c>
-      <c r="F38" t="n">
-        <v>97</v>
+      <c r="F38" s="2" t="n">
+        <v>94</v>
       </c>
     </row>
-    <row r="39" ht="13.9" customHeight="1" s="1">
-      <c r="A39" t="inlineStr">
+    <row r="39" ht="13.8" customHeight="1" s="3">
+      <c r="A39" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 17:20:53 2022</t>
         </is>
       </c>
-      <c r="B39" t="n">
+      <c r="B39" s="2" t="n">
         <v>32.59</v>
       </c>
-      <c r="C39" t="n">
+      <c r="C39" s="2" t="n">
         <v>87.55</v>
       </c>
-      <c r="D39" t="n">
+      <c r="D39" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E39" t="n">
+      <c r="E39" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" s="2" t="n">
         <v>95</v>
       </c>
     </row>
-    <row r="40" ht="13.9" customHeight="1" s="1">
-      <c r="A40" t="inlineStr">
+    <row r="40" ht="13.8" customHeight="1" s="3">
+      <c r="A40" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 17:20:53 2022</t>
         </is>
       </c>
-      <c r="B40" t="n">
+      <c r="B40" s="2" t="n">
         <v>31.43</v>
       </c>
-      <c r="C40" t="n">
+      <c r="C40" s="2" t="n">
         <v>89.34999999999999</v>
       </c>
-      <c r="D40" t="n">
+      <c r="D40" s="2" t="n">
         <v>1.67</v>
       </c>
-      <c r="E40" t="n">
+      <c r="E40" s="2" t="n">
         <v>37.29</v>
       </c>
-      <c r="F40" t="n">
-        <v>96</v>
+      <c r="F40" s="2" t="n">
+        <v>97</v>
       </c>
     </row>
-    <row r="41" ht="13.9" customHeight="1" s="1">
-      <c r="A41" t="inlineStr">
+    <row r="41" ht="13.8" customHeight="1" s="3">
+      <c r="A41" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 17:25:34 2022</t>
         </is>
       </c>
-      <c r="B41" t="n">
+      <c r="B41" s="2" t="n">
         <v>31.99</v>
       </c>
-      <c r="C41" t="n">
+      <c r="C41" s="2" t="n">
         <v>85.64</v>
       </c>
-      <c r="D41" t="n">
+      <c r="D41" s="2" t="n">
         <v>1.68</v>
       </c>
-      <c r="E41" t="n">
+      <c r="E41" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F41" t="n">
-        <v>92</v>
+      <c r="F41" s="2" t="n">
+        <v>95</v>
       </c>
     </row>
-    <row r="42" ht="13.9" customHeight="1" s="1">
-      <c r="A42" t="inlineStr">
+    <row r="42" ht="13.8" customHeight="1" s="3">
+      <c r="A42" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 17:29:07 2022</t>
         </is>
       </c>
-      <c r="B42" t="n">
+      <c r="B42" s="2" t="n">
         <v>33.19</v>
       </c>
-      <c r="C42" t="n">
+      <c r="C42" s="2" t="n">
         <v>85.55</v>
       </c>
-      <c r="D42" t="n">
+      <c r="D42" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E42" t="n">
+      <c r="E42" s="2" t="n">
         <v>35.29</v>
       </c>
-      <c r="F42" t="n">
-        <v>94</v>
+      <c r="F42" s="2" t="n">
+        <v>96</v>
       </c>
     </row>
-    <row r="43" ht="13.9" customHeight="1" s="1">
-      <c r="A43" t="inlineStr">
+    <row r="43" ht="13.8" customHeight="1" s="3">
+      <c r="A43" s="2" t="inlineStr">
         <is>
           <t>Mon May 23 17:30:51 2022</t>
         </is>
       </c>
-      <c r="B43" t="n">
+      <c r="B43" s="2" t="n">
         <v>33.77</v>
       </c>
-      <c r="C43" t="n">
+      <c r="C43" s="2" t="n">
         <v>85.56</v>
       </c>
-      <c r="D43" t="n">
+      <c r="D43" s="2" t="n">
         <v>1.69</v>
       </c>
-      <c r="E43" t="n">
+      <c r="E43" s="2" t="n">
         <v>30.29</v>
       </c>
-      <c r="F43" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>Mon May 23 16:45:16 2022</t>
-        </is>
-      </c>
-      <c r="B44" t="n">
-        <v>33.27</v>
-      </c>
-      <c r="C44" t="n">
-        <v>86.02</v>
-      </c>
-      <c r="D44" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E44" t="n">
-        <v>31.29</v>
-      </c>
-      <c r="F44" t="n">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:20:53 2022</t>
-        </is>
-      </c>
-      <c r="B45" t="n">
-        <v>32.59</v>
-      </c>
-      <c r="C45" t="n">
-        <v>87.55</v>
-      </c>
-      <c r="D45" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E45" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F45" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:20:53 2022</t>
-        </is>
-      </c>
-      <c r="B46" t="n">
-        <v>31.43</v>
-      </c>
-      <c r="C46" t="n">
-        <v>89.34999999999999</v>
-      </c>
-      <c r="D46" t="n">
-        <v>1.67</v>
-      </c>
-      <c r="E46" t="n">
-        <v>37.29</v>
-      </c>
-      <c r="F46" t="n">
-        <v>96</v>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:25:34 2022</t>
-        </is>
-      </c>
-      <c r="B47" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="C47" t="n">
-        <v>85.64</v>
-      </c>
-      <c r="D47" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E47" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F47" t="n">
+      <c r="F43" s="2" t="n">
         <v>92</v>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:29:07 2022</t>
-        </is>
-      </c>
-      <c r="B48" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="C48" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="D48" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E48" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="F48" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:30:51 2022</t>
-        </is>
-      </c>
-      <c r="B49" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="C49" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="D49" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E49" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F49" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:25:34 2022</t>
-        </is>
-      </c>
-      <c r="B50" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="C50" t="n">
-        <v>85.64</v>
-      </c>
-      <c r="D50" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E50" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F50" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:29:07 2022</t>
-        </is>
-      </c>
-      <c r="B51" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="C51" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="D51" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E51" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="F51" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:30:51 2022</t>
-        </is>
-      </c>
-      <c r="B52" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="C52" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="D52" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E52" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F52" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:29:07 2022</t>
-        </is>
-      </c>
-      <c r="B53" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="C53" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="D53" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E53" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="F53" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:30:51 2022</t>
-        </is>
-      </c>
-      <c r="B54" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="C54" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="D54" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E54" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F54" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:25:34 2022</t>
-        </is>
-      </c>
-      <c r="B55" t="n">
-        <v>31.99</v>
-      </c>
-      <c r="C55" t="n">
-        <v>85.64</v>
-      </c>
-      <c r="D55" t="n">
-        <v>1.68</v>
-      </c>
-      <c r="E55" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F55" t="n">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:29:07 2022</t>
-        </is>
-      </c>
-      <c r="B56" t="n">
-        <v>33.19</v>
-      </c>
-      <c r="C56" t="n">
-        <v>85.55</v>
-      </c>
-      <c r="D56" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E56" t="n">
-        <v>35.29</v>
-      </c>
-      <c r="F56" t="n">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:30:51 2022</t>
-        </is>
-      </c>
-      <c r="B57" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="C57" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="D57" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E57" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F57" t="n">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>Mon May 23 17:30:51 2022</t>
-        </is>
-      </c>
-      <c r="B58" t="n">
-        <v>33.77</v>
-      </c>
-      <c r="C58" t="n">
-        <v>85.56</v>
-      </c>
-      <c r="D58" t="n">
-        <v>1.69</v>
-      </c>
-      <c r="E58" t="n">
-        <v>30.29</v>
-      </c>
-      <c r="F58" t="n">
-        <v>95</v>
       </c>
     </row>
   </sheetData>
+  <printOptions horizontalCentered="0" verticalCentered="0" headings="0" gridLines="0" gridLinesSet="1"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.511805555555555" footer="0.511805555555555"/>
-  <pageSetup orientation="portrait" paperSize="9" scale="82" fitToHeight="0" firstPageNumber="0" horizontalDpi="300" verticalDpi="300"/>
-  <drawing r:id="rId1"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="100" fitToHeight="1" fitToWidth="1" firstPageNumber="0" useFirstPageNumber="0" pageOrder="downThenOver" blackAndWhite="0" draft="0" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <drawing xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
 </worksheet>
 </file>
--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -4881,7 +4881,6 @@
 
 <file path=xl/charts/chart46.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="34"/>
   <chart>
     <title>
       <tx>
@@ -5000,7 +4999,6 @@
 
 <file path=xl/charts/chart47.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -5119,7 +5117,6 @@
 
 <file path=xl/charts/chart48.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
   <chart>
     <title>
       <tx>
@@ -5238,7 +5235,6 @@
 
 <file path=xl/charts/chart49.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="7"/>
   <chart>
     <title>
       <tx>
@@ -5474,6 +5470,600 @@
 </file>
 
 <file path=xl/charts/chart50.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="34"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="6"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="3"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="7"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="5"/>
   <chart>
@@ -7166,6 +7756,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="51" name="Chart 51"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId51"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="52" name="Chart 52"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId52"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="53" name="Chart 53"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId53"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="54" name="Chart 54"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId54"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="55" name="Chart 55"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId55"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -5589,6 +5589,596 @@
 
 <file path=xl/charts/chart51.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="34"/>
   <chart>
     <title>
@@ -5706,7 +6296,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart52.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="6"/>
   <chart>
@@ -5825,7 +6415,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart53.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="3"/>
   <chart>
@@ -5944,7 +6534,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart54.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="7"/>
   <chart>
@@ -6044,125 +6634,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>IMC [Kg/m^2]]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart55.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'hoja1'!F4</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'hoja1'!$A$4:$A$43</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'hoja1'!$F$5:$F$43</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Dias</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -6281,6 +6752,125 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="5"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -7866,6 +8456,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="56" name="Chart 56"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId56"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="57" name="Chart 57"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId57"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="58" name="Chart 58"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId58"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="59" name="Chart 59"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId59"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="60" name="Chart 60"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId60"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -6179,7 +6179,6 @@
 
 <file path=xl/charts/chart56.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="34"/>
   <chart>
     <title>
       <tx>
@@ -6298,7 +6297,6 @@
 
 <file path=xl/charts/chart57.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -6417,7 +6415,6 @@
 
 <file path=xl/charts/chart58.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
   <chart>
     <title>
       <tx>
@@ -6536,7 +6533,6 @@
 
 <file path=xl/charts/chart59.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="7"/>
   <chart>
     <title>
       <tx>
@@ -6772,6 +6768,600 @@
 </file>
 
 <file path=xl/charts/chart60.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="34"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="6"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="3"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="7"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="5"/>
   <chart>
@@ -8566,6 +9156,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="61" name="Chart 61"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId61"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="62" name="Chart 62"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId62"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="63" name="Chart 63"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId63"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="64" name="Chart 64"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId64"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="65" name="Chart 65"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId65"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -6887,6 +6887,596 @@
 
 <file path=xl/charts/chart61.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="34"/>
   <chart>
     <title>
@@ -7004,7 +7594,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart62.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="6"/>
   <chart>
@@ -7123,7 +7713,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart63.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="3"/>
   <chart>
@@ -7242,7 +7832,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart64.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="7"/>
   <chart>
@@ -7342,125 +7932,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>IMC [Kg/m^2]]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart65.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'hoja1'!F4</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'hoja1'!$A$4:$A$43</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'hoja1'!$F$5:$F$43</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Dias</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -7579,6 +8050,125 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="5"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -9266,6 +9856,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="66" name="Chart 66"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId66"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="67" name="Chart 67"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId67"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="68" name="Chart 68"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId68"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="69" name="Chart 69"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId69"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="70" name="Chart 70"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId70"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -7477,7 +7477,6 @@
 
 <file path=xl/charts/chart66.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="34"/>
   <chart>
     <title>
       <tx>
@@ -7596,7 +7595,6 @@
 
 <file path=xl/charts/chart67.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="6"/>
   <chart>
     <title>
       <tx>
@@ -7715,7 +7713,6 @@
 
 <file path=xl/charts/chart68.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="3"/>
   <chart>
     <title>
       <tx>
@@ -7834,7 +7831,6 @@
 
 <file path=xl/charts/chart69.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="7"/>
   <chart>
     <title>
       <tx>
@@ -8070,6 +8066,600 @@
 </file>
 
 <file path=xl/charts/chart70.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="34"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="6"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="3"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="7"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="5"/>
   <chart>
@@ -9966,6 +10556,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="71" name="Chart 71"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId71"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="72" name="Chart 72"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId72"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="73" name="Chart 73"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId73"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="74" name="Chart 74"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId74"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="75" name="Chart 75"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId75"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 

--- a/ejemplo.xlsx
+++ b/ejemplo.xlsx
@@ -8185,6 +8185,596 @@
 
 <file path=xl/charts/chart71.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>TEMPERATURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!B4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$B$5:$B$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Temperatura Corporal [°C]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>PESO CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!C4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$C$5:$C$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Peso Corporal[Kg]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>ALTURA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!D4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$D$5:$D$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>INDICE DE MASA CORPORAL</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!E4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$E$5:$E$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>IMC [Kg/m^2]]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart76.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="34"/>
   <chart>
     <title>
@@ -8302,7 +8892,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart72.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart77.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="6"/>
   <chart>
@@ -8421,7 +9011,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart73.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart78.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="3"/>
   <chart>
@@ -8540,7 +9130,7 @@
 </chartSpace>
 </file>
 
-<file path=xl/charts/chart74.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart79.xml><?xml version="1.0" encoding="utf-8"?>
 <chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
   <style val="7"/>
   <chart>
@@ -8640,125 +9230,6 @@
                 </a:pPr>
                 <a:r>
                   <a:t>IMC [Kg/m^2]]</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="10"/>
-      </valAx>
-    </plotArea>
-    <legend>
-      <legendPos val="r"/>
-    </legend>
-    <plotVisOnly val="1"/>
-    <dispBlanksAs val="gap"/>
-  </chart>
-</chartSpace>
-</file>
-
-<file path=xl/charts/chart75.xml><?xml version="1.0" encoding="utf-8"?>
-<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
-  <style val="5"/>
-  <chart>
-    <title>
-      <tx>
-        <rich>
-          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-            <a:pPr>
-              <a:defRPr/>
-            </a:pPr>
-            <a:r>
-              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
-            </a:r>
-          </a:p>
-        </rich>
-      </tx>
-    </title>
-    <plotArea>
-      <lineChart>
-        <grouping val="standard"/>
-        <ser>
-          <idx val="0"/>
-          <order val="0"/>
-          <tx>
-            <strRef>
-              <f>'hoja1'!F4</f>
-            </strRef>
-          </tx>
-          <spPr>
-            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-              <a:prstDash val="solid"/>
-            </a:ln>
-          </spPr>
-          <marker>
-            <symbol val="none"/>
-            <spPr>
-              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:prstDash val="solid"/>
-              </a:ln>
-            </spPr>
-          </marker>
-          <cat>
-            <numRef>
-              <f>'hoja1'!$A$4:$A$43</f>
-            </numRef>
-          </cat>
-          <val>
-            <numRef>
-              <f>'hoja1'!$F$5:$F$43</f>
-            </numRef>
-          </val>
-        </ser>
-        <axId val="10"/>
-        <axId val="100"/>
-      </lineChart>
-      <catAx>
-        <axId val="10"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>Dias</a:t>
-                </a:r>
-              </a:p>
-            </rich>
-          </tx>
-        </title>
-        <majorTickMark val="none"/>
-        <minorTickMark val="none"/>
-        <crossAx val="100"/>
-        <lblOffset val="100"/>
-      </catAx>
-      <valAx>
-        <axId val="100"/>
-        <scaling>
-          <orientation val="minMax"/>
-        </scaling>
-        <axPos val="l"/>
-        <majorGridlines/>
-        <title>
-          <tx>
-            <rich>
-              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
-              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
-                <a:pPr>
-                  <a:defRPr/>
-                </a:pPr>
-                <a:r>
-                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -8877,6 +9348,125 @@
                 </a:pPr>
                 <a:r>
                   <a:t>Altura Corporal[m]</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="10"/>
+      </valAx>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/charts/chart80.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <style val="5"/>
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+          <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>SATURACION DE OXIGENO EN LA SANGRE</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <lineChart>
+        <grouping val="standard"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <tx>
+            <strRef>
+              <f>'hoja1'!F4</f>
+            </strRef>
+          </tx>
+          <spPr>
+            <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <marker>
+            <symbol val="none"/>
+            <spPr>
+              <a:ln xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:prstDash val="solid"/>
+              </a:ln>
+            </spPr>
+          </marker>
+          <cat>
+            <numRef>
+              <f>'hoja1'!$A$4:$A$43</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'hoja1'!$F$5:$F$43</f>
+            </numRef>
+          </val>
+        </ser>
+        <axId val="10"/>
+        <axId val="100"/>
+      </lineChart>
+      <catAx>
+        <axId val="10"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>Dias</a:t>
+                </a:r>
+              </a:p>
+            </rich>
+          </tx>
+        </title>
+        <majorTickMark val="none"/>
+        <minorTickMark val="none"/>
+        <crossAx val="100"/>
+        <lblOffset val="100"/>
+      </catAx>
+      <valAx>
+        <axId val="100"/>
+        <scaling>
+          <orientation val="minMax"/>
+        </scaling>
+        <axPos val="l"/>
+        <majorGridlines/>
+        <title>
+          <tx>
+            <rich>
+              <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+              <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:t>O2Sat [%]</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -10666,6 +11256,116 @@
     </graphicFrame>
     <clientData/>
   </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>44</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="76" name="Chart 76"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId76"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>59</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="77" name="Chart 77"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId77"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>74</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="78" name="Chart 78"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId78"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>89</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="79" name="Chart 79"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId79"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+  <oneCellAnchor>
+    <from>
+      <col>0</col>
+      <colOff>0</colOff>
+      <row>104</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="80" name="Chart 80"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId80"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
 </wsDr>
 </file>
 
